--- a/src/main/resources/jxls_templates/stockoutqcformm.xlsx
+++ b/src/main/resources/jxls_templates/stockoutqcformm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -49,7 +62,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,6 +113,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -101,7 +140,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,6 +191,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -153,7 +218,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +241,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT")
-</t>
+ </t>
         </r>
       </text>
     </comment>
@@ -172,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>在库检成绩表</t>
   </si>
@@ -183,7 +261,7 @@
     <t>${page.master.cequipmentname}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 测定目的:</t>
+    <t xml:space="preserve"> 测定目的</t>
   </si>
   <si>
     <t>部品名称</t>
@@ -231,9 +309,6 @@
     <t>检验图片：</t>
   </si>
   <si>
-    <t>${page.master.picture}</t>
-  </si>
-  <si>
     <t>测定单位</t>
   </si>
   <si>
@@ -243,25 +318,10 @@
     <t>序号</t>
   </si>
   <si>
-    <t>检查项目</t>
-  </si>
-  <si>
-    <t>规格公差</t>
-  </si>
-  <si>
-    <t>检查方法</t>
+    <t>${param.value}</t>
   </si>
   <si>
     <t>${row.seq}</t>
-  </si>
-  <si>
-    <t>${row.cqcitemname}</t>
-  </si>
-  <si>
-    <t>${row.options}</t>
-  </si>
-  <si>
-    <t>${row.cqcparamname}</t>
   </si>
   <si>
     <t>${row.cvaluelist[0]}</t>
@@ -736,7 +796,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -747,9 +809,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1009,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,19 +1082,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1046,14 +1106,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1377,16 +1443,26 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="13" max="13" width="0.125" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:15">
@@ -1412,13 +1488,13 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -1435,12 +1511,12 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1458,12 +1534,12 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1479,58 +1555,58 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8"/>
@@ -1546,12 +1622,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1699,177 +1773,163 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
-        <v>6</v>
-      </c>
-      <c r="L17" s="11">
-        <v>7</v>
-      </c>
-      <c r="M17" s="11">
-        <v>8</v>
-      </c>
-      <c r="N17" s="11">
-        <v>9</v>
-      </c>
-      <c r="O17" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
@@ -1877,11 +1937,13 @@
   <mergeCells count="22">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>
@@ -1889,8 +1951,6 @@
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="F3:O4"/>
@@ -1909,19 +1969,26 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:O18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" ht="25.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,17 +2007,17 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" ht="24" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -1963,16 +2030,16 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
+    <row r="3" ht="22" customHeight="1" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1986,16 +2053,16 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
+    <row r="4" ht="25" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2007,62 +2074,62 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
+    <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8"/>
@@ -2078,12 +2145,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:15">
+      <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2099,7 +2164,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" customHeight="1" spans="1:15">
+    <row r="9" ht="32" customHeight="1" spans="1:15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2116,7 +2181,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" customHeight="1" spans="1:15">
+    <row r="10" ht="33" customHeight="1" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2133,7 +2198,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" customHeight="1" spans="1:15">
+    <row r="11" ht="34" customHeight="1" spans="1:15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2150,7 +2215,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" customHeight="1" spans="1:15">
+    <row r="12" ht="30" customHeight="1" spans="1:15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2167,7 +2232,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
+    <row r="13" ht="42" customHeight="1" spans="1:15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2184,7 +2249,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" customHeight="1" spans="1:15">
+    <row r="14" ht="33" customHeight="1" spans="1:15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2201,7 +2266,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" customHeight="1" spans="1:15">
+    <row r="15" ht="19" customHeight="1" spans="1:15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2218,7 +2283,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" customHeight="1" spans="1:15">
+    <row r="16" ht="24" customHeight="1" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2231,177 +2296,163 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
-        <v>6</v>
-      </c>
-      <c r="L17" s="11">
-        <v>7</v>
-      </c>
-      <c r="M17" s="11">
-        <v>8</v>
-      </c>
-      <c r="N17" s="11">
-        <v>9</v>
-      </c>
-      <c r="O17" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="11" t="s">
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" customHeight="1" spans="1:15">
+    <row r="21" spans="1:15">
       <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
@@ -2409,11 +2460,13 @@
   <mergeCells count="22">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>
@@ -2421,8 +2474,6 @@
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="F3:O4"/>
@@ -2441,19 +2492,27 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" ht="25.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2472,17 +2531,17 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:15">
+    <row r="2" ht="21" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -2495,16 +2554,16 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
+    <row r="3" ht="23" customHeight="1" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2518,16 +2577,16 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
+    <row r="4" ht="23" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2539,62 +2598,62 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:15">
+    <row r="5" ht="21" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8"/>
@@ -2610,12 +2669,10 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" ht="34" customHeight="1" spans="1:15">
+      <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2631,7 +2688,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" customHeight="1" spans="1:15">
+    <row r="9" ht="36" customHeight="1" spans="1:15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2648,7 +2705,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" customHeight="1" spans="1:15">
+    <row r="10" ht="42" customHeight="1" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2665,7 +2722,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" customHeight="1" spans="1:15">
+    <row r="11" ht="37" customHeight="1" spans="1:15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2682,7 +2739,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" customHeight="1" spans="1:15">
+    <row r="12" ht="33" customHeight="1" spans="1:15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2699,7 +2756,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" customHeight="1" spans="1:15">
+    <row r="13" ht="34" customHeight="1" spans="1:15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2716,7 +2773,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2733,7 +2790,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" customHeight="1" spans="1:15">
+    <row r="15" ht="39" customHeight="1" spans="1:15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2750,7 +2807,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" customHeight="1" spans="1:15">
+    <row r="16" ht="24" customHeight="1" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2763,177 +2820,163 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-      <c r="I17" s="11">
-        <v>4</v>
-      </c>
-      <c r="J17" s="11">
-        <v>5</v>
-      </c>
-      <c r="K17" s="11">
-        <v>6</v>
-      </c>
-      <c r="L17" s="11">
-        <v>7</v>
-      </c>
-      <c r="M17" s="11">
-        <v>8</v>
-      </c>
-      <c r="N17" s="11">
-        <v>9</v>
-      </c>
-      <c r="O17" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="O20" s="11"/>
     </row>
-    <row r="21" customHeight="1" spans="1:15">
+    <row r="21" spans="1:15">
       <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
     </row>
@@ -2941,11 +2984,13 @@
   <mergeCells count="22">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>
@@ -2953,8 +2998,6 @@
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="F3:O4"/>
